--- a/data/female_conditioning/virgin/4-1_1-4_oviposition_virgin_3.xlsx
+++ b/data/female_conditioning/virgin/4-1_1-4_oviposition_virgin_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster3/data/female_conditioning/virgin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38B57B28-21BC-5546-9D0B-A5174F11F78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39BCF8EB-9232-EB49-9AFD-ED2AEC3E7826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B7655D99-CA9F-5B4B-9140-D049E30B0655}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A2970478-E9B0-E043-8A10-D5A6481FF616}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,19 +38,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
+    <t>plate</t>
+  </si>
+  <si>
     <t>4:1 Conditioned</t>
   </si>
   <si>
     <t>1:4 Conditioned</t>
   </si>
   <si>
-    <t>4:1  Unconditioned</t>
+    <t>4:1 Unconditioned</t>
   </si>
   <si>
     <t>1:4 Unconditioned</t>
-  </si>
-  <si>
-    <t>plate</t>
   </si>
 </sst>
 </file>
@@ -421,36 +421,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C342A80-2151-804D-8C36-811E7F66D92E}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1608F724-75DE-8D40-87D9-3BC74EFB531C}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="238" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -458,16 +458,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -475,16 +475,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C3">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -492,16 +492,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -509,16 +509,33 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E5">
-        <v>23</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>95</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>92</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
